--- a/biology/Microbiologie/Plagiotomidae/Plagiotomidae.xlsx
+++ b/biology/Microbiologie/Plagiotomidae/Plagiotomidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plagiotomida
 Les Plagiotomidae, uniques représentants de l’ordre des Plagiotomida, sont une famille de Ciliés de la classe des Heterotrichea.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Plagiotoma, dérivé du grec πλαγι / plagi, « oblique, transversal », et στομα / stoma, bouche, littéralement « bouche oblique », en référence à la position du pharynx de cet organisme.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dujardin en 1841 décrit ainsi Plagiotoma : 
-« (Son) corps (est) blanc, demi-transparent avec des corpuscules anguleux dans l'intérieur. — Long de 0,16 à 0,2d. Je trouvai abondamment cet infusoire vivant dans les Lombrics de mon jardin, à Paris, pendant tout le mois de février 1839. Il montrait douze à treize rangées longitudinales de longs cils ondulants; les cils de son bord antérieur très nombreux ondulaient avec régularité, de manière à former sur toute la longueur, depuis le milieu du corps jusqu'à l'extrémité antérieure, huit à neuf groupes apparents ou faisceaux plus sombres, comme des dents de crémaillère qui se seraient mues de bas en haut, d'un mouvement uniforme assez lent : c'était un effet d'optique, un résultat de la juxtaposition momentanée des cils qui, s'infléchissant les uns après les autres [...] Au milieu du corps de cet Infusoire on observe souvent des noyaux anguleux irréguliers, dont le nombre peut aller jusqu'à quinze et qui agissent sur la lumière comme plus réfringents que la substance environnante, ou comme les corps que M. Ehrenberg a nommés testicules. Avec eux ou séparément se voient aussi des vacuoles irrégulières qui agissent sur la lumière d'une manière tout opposée[1]. »
+« (Son) corps (est) blanc, demi-transparent avec des corpuscules anguleux dans l'intérieur. — Long de 0,16 à 0,2d. Je trouvai abondamment cet infusoire vivant dans les Lombrics de mon jardin, à Paris, pendant tout le mois de février 1839. Il montrait douze à treize rangées longitudinales de longs cils ondulants; les cils de son bord antérieur très nombreux ondulaient avec régularité, de manière à former sur toute la longueur, depuis le milieu du corps jusqu'à l'extrémité antérieure, huit à neuf groupes apparents ou faisceaux plus sombres, comme des dents de crémaillère qui se seraient mues de bas en haut, d'un mouvement uniforme assez lent : c'était un effet d'optique, un résultat de la juxtaposition momentanée des cils qui, s'infléchissant les uns après les autres [...] Au milieu du corps de cet Infusoire on observe souvent des noyaux anguleux irréguliers, dont le nombre peut aller jusqu'à quinze et qui agissent sur la lumière comme plus réfringents que la substance environnante, ou comme les corps que M. Ehrenberg a nommés testicules. Avec eux ou séparément se voient aussi des vacuoles irrégulières qui agissent sur la lumière d'une manière tout opposée. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dujardin en 1841 déclare à propose de Plagiotoma « Gleichen découvrit, en 1776, cet Infusoire dans les Lombrics vivants, mais non dans l'intestin comme on l'a dit ; car c'est toujours entre l'intestin et la couche musculaire externe que vivent les divers Infusoires parasites des Lombrics[1]. »
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dujardin en 1841 déclare à propose de Plagiotoma « Gleichen découvrit, en 1776, cet Infusoire dans les Lombrics vivants, mais non dans l'intestin comme on l'a dit ; car c'est toujours entre l'intestin et la couche musculaire externe que vivent les divers Infusoires parasites des Lombrics. »
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 février 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 février 2023) :
 Leucophra
-Plagiotoma Dujardin, 1841[1]
+Plagiotoma Dujardin, 1841
 Espèce type : Plagiotoma lumbrici (Schrank, 1803) Dujardin, 1841
 Synonyme : Leucophra lumbrici Schrank, 1803
 Basionyme de : Anoplophrya lumbrici (Schrank, 1803) Stein, 1860</t>
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de cette famille est Plagiotomidae Bütschli, 1887, celui de l'ordre est Plagiotomida Albaret, 1974[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de cette famille est Plagiotomidae Bütschli, 1887, celui de l'ordre est Plagiotomida Albaret, 1974.
 </t>
         </is>
       </c>
